--- a/target/test-classes/DataFiles/MasterTestData1.xlsx
+++ b/target/test-classes/DataFiles/MasterTestData1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>204</t>
   </si>
@@ -88,16 +88,7 @@
     <t>/Pune</t>
   </si>
   <si>
-    <t>{"name":"Kumar","job":"leader","updatedAt":"2021-07-18T19:36:02.943Z"}</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>{"City":"Pune","Temperature":"28 Degree celsius","Humidity":"88 Percent","Weather Description":"scattered clouds","Wind Speed":"77 Km per hour","Wind Direction degree":"34 Degree"}</t>
-  </si>
-  <si>
-    <t>{"name":"morpheus","job":"leader","id":"944","createdAt":"2021-07-19T17:25:11.273Z"}</t>
   </si>
   <si>
     <t>{
@@ -106,20 +97,19 @@
 }</t>
   </si>
   <si>
-    <t>{"City":"Pune","Temperature":"158 Degree celsius","Humidity":"15 Percent","Weather Description":"scattered clouds","Wind Speed":"77 Km per hour","Wind Direction degree":"17 Degree"}</t>
-  </si>
-  <si>
-    <t>{"name":"morpheus","job":"leader","id":"701","createdAt":"2021-07-19T17:28:53.392Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Kamal","job":"leader","updatedAt":"2021-07-19T17:28:54.223Z"}</t>
+    <t>{"City":"Pune","Temperature":"116 Degree celsius","Humidity":"116 Percent","Weather Description":"scattered clouds","Wind Speed":"33 Km per hour","Wind Direction degree":"31 Degree"}</t>
+  </si>
+  <si>
+    <t>{"name":"morpheus","job":"leader","id":"811","createdAt":"2021-10-22T05:47:41.124Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Kamal","job":"leader","updatedAt":"2021-10-22T05:47:41.819Z"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -479,20 +469,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="48.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="46.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -538,10 +528,7 @@
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
@@ -564,10 +551,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>6</v>
@@ -587,13 +571,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
         <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>4</v>
@@ -613,10 +594,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>0</v>
